--- a/ROWS/WEEK03.xlsx
+++ b/ROWS/WEEK03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAB\HexHw03\ROWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2A2224-8A69-4AD1-AA6B-460DE2BB3CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9DA3B2-B847-4911-818C-65AD4F864CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2D4AA26-4C2F-49CE-BB72-5DA9C5509BEA}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6B888-F3A0-4EA1-A6CF-5ECE9BD5BAE0}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -576,6 +576,17 @@
         <v>3.0666666666666665E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
